--- a/biology/Zoologie/Calumma_uetzi/Calumma_uetzi.xlsx
+++ b/biology/Zoologie/Calumma_uetzi/Calumma_uetzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma uetzi est une espèce de reptiles de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma uetzi est une espèce de reptiles de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Endémique de Madagascar, ce caméléon s’observe dans la province d'Antsiranana, au nord de Madagascar.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est ovipare.
 </t>
@@ -574,9 +590,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommé en hommage à Peter Uetz, créateur de the Reptile Database[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommé en hommage à Peter Uetz, créateur de the Reptile Database.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>David Prötzel, Miguel Vences, Oliver Hawlitschek et Mark D Scherz, « Endangered beauties: micro-CT cranial osteology, molecular genetics and external morphology reveal three new species of chameleons in the Calumma boettgeri complex (Squamata: Chamaeleonidae) », Zoological Journal of the Linnean Society, vol. 184, no 2,‎ 5 octobre 2018, p. 471–498 (ISSN 0024-4082, DOI 10.1093/zoolinnean/zlx112, lire en ligne, consulté le 1er avril 2022)</t>
         </is>
